--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914880.628639007</v>
+        <v>-917436.9444662574</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>118.3173869711655</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -716,10 +716,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>27.5378158640537</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,7 +753,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>90.94559582648743</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>42.09111849005734</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>159.927212697444</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>361.5176992717392</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,10 +953,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>4.443625914097865</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>127.6216357996079</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>97.41343798745204</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>332.9531659011069</v>
       </c>
       <c r="G8" t="n">
-        <v>121.1055861235219</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>115.0138334144184</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>34.75330137907685</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187843</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>86.9059890879423</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.5893686009535</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>171.1702516277176</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>64.91921363453658</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>18.16423677622466</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.146142788180326</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>134.0367616438387</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>146.4649598217087</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308914</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1246.723135529484</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C2" t="n">
-        <v>877.7606185890727</v>
+        <v>883.8708262827843</v>
       </c>
       <c r="D2" t="n">
-        <v>519.4949199823222</v>
+        <v>525.6051276760338</v>
       </c>
       <c r="E2" t="n">
-        <v>519.4949199823222</v>
+        <v>525.6051276760338</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>525.6051276760338</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2396.928065830498</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>2023.462307569418</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y2" t="n">
-        <v>1633.322975593606</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>696.7222596848569</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>696.7222596848569</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>699.120390387711</v>
+        <v>878.3707245150966</v>
       </c>
       <c r="U4" t="n">
-        <v>699.120390387711</v>
+        <v>878.3707245150966</v>
       </c>
       <c r="V4" t="n">
-        <v>537.5777512993837</v>
+        <v>878.3707245150966</v>
       </c>
       <c r="W4" t="n">
-        <v>248.1605812624231</v>
+        <v>878.3707245150966</v>
       </c>
       <c r="X4" t="n">
-        <v>248.1605812624231</v>
+        <v>878.3707245150966</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>878.3707245150966</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.539111149739</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.539111149739</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1274.539111149739</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>888.7508585514952</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213861</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>511.2489900899278</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C7" t="n">
-        <v>342.3128071620209</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>342.3128071620209</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201675</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="Y7" t="n">
-        <v>692.8974549201675</v>
+        <v>630.8037095364738</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.63871203243</v>
+        <v>1901.535346136983</v>
       </c>
       <c r="C8" t="n">
-        <v>1255.676195092019</v>
+        <v>1901.535346136983</v>
       </c>
       <c r="D8" t="n">
-        <v>897.4104964852681</v>
+        <v>1543.269647530233</v>
       </c>
       <c r="E8" t="n">
-        <v>897.4104964852681</v>
+        <v>1157.481394931988</v>
       </c>
       <c r="F8" t="n">
-        <v>486.4245916956606</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>2288.135186201105</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.6877057396768</v>
+        <v>359.619250712236</v>
       </c>
       <c r="C10" t="n">
-        <v>182.6877057396768</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W10" t="n">
-        <v>631.4698357812242</v>
+        <v>576.372060369826</v>
       </c>
       <c r="X10" t="n">
-        <v>403.4802848832069</v>
+        <v>576.372060369826</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.6877057396768</v>
+        <v>541.2677155424757</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>954.247644860662</v>
+        <v>924.6979859831837</v>
       </c>
       <c r="C13" t="n">
-        <v>785.3114619327552</v>
+        <v>755.7618030552768</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>605.645163642941</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>457.7320700605479</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>310.8421225626375</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>310.8421225626375</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797761</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487569</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831767</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.30283062588</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588919</v>
+        <v>1327.139029956953</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690902</v>
+        <v>1327.139029956953</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.896109690902</v>
+        <v>1106.346450813423</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>2131.487582220359</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.803094014472</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>1492.358983475458</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>1271.566404331928</v>
       </c>
     </row>
     <row r="17">
@@ -5507,22 +5507,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703778</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958744</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679675</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556317</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>335.9629114732386</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>335.9629114732386</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267662</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261141</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.195150674524</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876697</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597628</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597628</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597628</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614396</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179095</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,43 +6692,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,7 +6838,7 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942655</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7163,43 +7163,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
         <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311322</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22556,13 +22556,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>292.604338682288</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>321.7031528533593</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22708,13 +22708,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22753,19 +22753,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>183.437558132451</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>177.4578307861119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>92.21043062638398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>61.70948393027005</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.705344245270396</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016524</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>8.66172855421965</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>221.2652607547076</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>147.3599015160442</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2749052347509</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>145.6085800303778</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>152.4862366927523</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998587.6312764987</v>
+        <v>998587.6312764994</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186177.354983754</v>
+        <v>186177.3549837541</v>
       </c>
       <c r="C2" t="n">
         <v>225786.486712678</v>
@@ -26320,16 +26320,16 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147516</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
+        <v>221965.3149147517</v>
+      </c>
+      <c r="H2" t="n">
         <v>221965.3149147516</v>
-      </c>
-      <c r="H2" t="n">
-        <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
         <v>221965.3149147517</v>
@@ -26338,16 +26338,16 @@
         <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691489</v>
+        <v>11387.33216691512</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405252</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26430,10 +26430,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189206</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26445,13 +26445,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498549</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498546</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498551</v>
       </c>
       <c r="O4" t="n">
         <v>24037.44323498544</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1261888.663472147</v>
+        <v>-1262248.746487865</v>
       </c>
       <c r="C6" t="n">
+        <v>24255.80204723217</v>
+      </c>
+      <c r="D6" t="n">
         <v>24255.80204723214</v>
       </c>
-      <c r="D6" t="n">
-        <v>24255.80204723212</v>
-      </c>
       <c r="E6" t="n">
-        <v>-220616.2606884028</v>
+        <v>-220650.9986138378</v>
       </c>
       <c r="F6" t="n">
-        <v>104796.2011189526</v>
+        <v>104761.4631935165</v>
       </c>
       <c r="G6" t="n">
-        <v>104796.2011189523</v>
+        <v>104761.4631935169</v>
       </c>
       <c r="H6" t="n">
-        <v>104796.2011189526</v>
+        <v>104761.463193517</v>
       </c>
       <c r="I6" t="n">
-        <v>104796.2011189527</v>
+        <v>104761.4631935168</v>
       </c>
       <c r="J6" t="n">
-        <v>-112735.0012783248</v>
+        <v>-112769.7392037606</v>
       </c>
       <c r="K6" t="n">
-        <v>104796.2011189527</v>
+        <v>104761.463193517</v>
       </c>
       <c r="L6" t="n">
-        <v>79157.20963014546</v>
+        <v>79157.20963014547</v>
       </c>
       <c r="M6" t="n">
-        <v>13529.89968826532</v>
+        <v>13529.89968826537</v>
       </c>
       <c r="N6" t="n">
-        <v>98584.92762377707</v>
+        <v>98584.92762377733</v>
       </c>
       <c r="O6" t="n">
-        <v>98584.92762377742</v>
+        <v>98584.92762377718</v>
       </c>
       <c r="P6" t="n">
-        <v>98584.92762377721</v>
+        <v>98584.9276237773</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,20 +26966,20 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>57.66987719172492</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>6.331467198990879</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>45.35834646997228</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>344.7973428033151</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.81232684696128</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>189.109560349139</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>73.92287984060454</v>
       </c>
       <c r="G8" t="n">
-        <v>289.8161395299315</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>33.60163960379394</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>183.8313519730179</v>
       </c>
     </row>
     <row r="11">
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-5.446652551924493e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192568</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162543</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,22 +32789,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>436.0678650906011</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,31 +34208,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359236</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191328</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394542</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146267</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>302.0934576762708</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
